--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/INVENTARIO ALMACEN FEB-2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/INVENTARIO ALMACEN FEB-2023 rtr.xlsx
@@ -13,11 +13,10 @@
   </bookViews>
   <sheets>
     <sheet name=" E N E R O    2 0 2 3      " sheetId="1" r:id="rId1"/>
-    <sheet name=" F E B R E R O   2023    " sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
-    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
-    <sheet name="Hoja6" sheetId="6" r:id="rId6"/>
+    <sheet name="F E B R E R O    2 0 2 3    " sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId4"/>
+    <sheet name="Hoja6" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -68,7 +67,7 @@
     <author>Rouss</author>
   </authors>
   <commentList>
-    <comment ref="O8" authorId="0" shapeId="0">
+    <comment ref="R8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +96,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="68">
   <si>
     <t>INVENTARIO ALMACEN</t>
   </si>
@@ -292,16 +291,53 @@
       <t>debe ser algo que salio y no descontaron</t>
     </r>
   </si>
+  <si>
+    <t>PAPA CONGELADA  9/9</t>
+  </si>
+  <si>
+    <t>PAPA CONGELADA CRINKLE</t>
+  </si>
+  <si>
+    <t>PAGPA CONGELADA GAJO</t>
+  </si>
+  <si>
+    <t>PIERNA CORDERO</t>
+  </si>
+  <si>
+    <t>T-BONE-CARNERO</t>
+  </si>
+  <si>
+    <t>COSTILLAR   S/F</t>
+  </si>
+  <si>
+    <t>KARDEX DE BETY</t>
+  </si>
+  <si>
+    <t>Cajas</t>
+  </si>
+  <si>
+    <t>Ene-,2023</t>
+  </si>
+  <si>
+    <t>Feb-,2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inventario   FISICO </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAS DIFERENCIAS COLOR AMARILLO   ES CON LO QUE NO CHECA EL INVENTARIO DE GERARDO </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,8 +642,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF0000CC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u val="double"/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -674,8 +736,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7EFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="61">
+  <borders count="98">
     <border>
       <left/>
       <right/>
@@ -1409,12 +1495,500 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="mediumDashed">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="mediumDashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="mediumDashed">
+        <color indexed="64"/>
+      </right>
+      <top style="mediumDashed">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="237">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1908,6 +2482,156 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="76" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="94" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="95" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="97" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="61" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1950,44 +2674,57 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="40" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="39" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Millares" xfId="2" builtinId="3"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1995,6 +2732,12 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF99CC00"/>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFFFCCFF"/>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFF7EFFF"/>
+      <color rgb="FF00FF00"/>
       <color rgb="FF669900"/>
       <color rgb="FF0000FF"/>
       <color rgb="FF800080"/>
@@ -2306,10 +3049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="226"/>
+      <c r="B1" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="256"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -2321,21 +3064,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="227">
+      <c r="B2" s="257">
         <v>44955</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="F2" s="229" t="s">
+      <c r="C2" s="258"/>
+      <c r="F2" s="259" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
+      <c r="G2" s="259"/>
+      <c r="H2" s="259"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="230" t="s">
+      <c r="K2" s="260" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="230"/>
+      <c r="L2" s="260"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -2345,30 +3088,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="231" t="s">
+      <c r="C3" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="232"/>
+      <c r="D3" s="262"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="233" t="s">
+      <c r="F3" s="263" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="234"/>
+      <c r="G3" s="264"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="235" t="s">
+      <c r="I3" s="265" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="212" t="s">
+      <c r="K3" s="260"/>
+      <c r="L3" s="260"/>
+      <c r="M3" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="213"/>
-      <c r="O3" s="214" t="s">
+      <c r="N3" s="269"/>
+      <c r="O3" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="215"/>
+      <c r="P3" s="271"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -2394,7 +3137,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="236"/>
+      <c r="I4" s="266"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -2455,8 +3198,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
+      <c r="O5" s="272"/>
+      <c r="P5" s="272"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -2498,8 +3241,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="217"/>
-      <c r="P6" s="217"/>
+      <c r="O6" s="273"/>
+      <c r="P6" s="273"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -2582,8 +3325,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="218"/>
-      <c r="P8" s="218"/>
+      <c r="O8" s="274"/>
+      <c r="P8" s="274"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -2664,8 +3407,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="219"/>
-      <c r="P10" s="219"/>
+      <c r="O10" s="275"/>
+      <c r="P10" s="275"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -2793,8 +3536,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
+      <c r="O13" s="276"/>
+      <c r="P13" s="276"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -3062,8 +3805,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="221"/>
-      <c r="P20" s="221"/>
+      <c r="O20" s="277"/>
+      <c r="P20" s="277"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -3148,8 +3891,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="222"/>
-      <c r="P22" s="222"/>
+      <c r="O22" s="278"/>
+      <c r="P22" s="278"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -3191,8 +3934,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="223"/>
-      <c r="P23" s="223"/>
+      <c r="O23" s="279"/>
+      <c r="P23" s="279"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -3314,8 +4057,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="224"/>
-      <c r="P26" s="224"/>
+      <c r="O26" s="280"/>
+      <c r="P26" s="280"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -3828,10 +4571,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="211" t="s">
+      <c r="F40" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="211"/>
+      <c r="G40" s="267"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -4031,13 +4774,6 @@
     <sortCondition ref="B5:B38"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -4050,6 +4786,13 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4060,105 +4803,118 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF669900"/>
+    <tabColor rgb="FF99CC00"/>
   </sheetPr>
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="146" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" style="146" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="1.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" customWidth="1"/>
     <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="1.5703125" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" style="156" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="161"/>
-    <col min="14" max="14" width="10" style="146" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="0" style="11" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.28515625" customWidth="1"/>
+    <col min="11" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" style="156" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="161"/>
+    <col min="17" max="17" width="10" style="146" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="0" style="11" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="225" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="226"/>
+    <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="256"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="6"/>
-    </row>
-    <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="227">
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="2:27" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="281">
         <v>44989</v>
       </c>
-      <c r="C2" s="228"/>
-      <c r="F2" s="229" t="s">
+      <c r="C2" s="282"/>
+      <c r="F2" s="283" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="230" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="230"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="13"/>
-    </row>
-    <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="284"/>
+      <c r="H2" s="285"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="287" t="s">
+        <v>62</v>
+      </c>
+      <c r="K2" s="287"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="221"/>
+      <c r="N2" s="260" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="260"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+    </row>
+    <row r="3" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="231" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="232"/>
+      <c r="C3" s="291" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="292"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="233" t="s">
-        <v>52</v>
-      </c>
-      <c r="G3" s="234"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="235" t="s">
+      <c r="F3" s="293" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="294"/>
+      <c r="H3" s="233"/>
+      <c r="I3" s="295" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="230"/>
-      <c r="L3" s="230"/>
-      <c r="M3" s="212" t="s">
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="222"/>
+      <c r="N3" s="260"/>
+      <c r="O3" s="260"/>
+      <c r="P3" s="268" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="213"/>
-      <c r="O3" s="214" t="s">
+      <c r="Q3" s="269"/>
+      <c r="R3" s="270" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="215"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-    </row>
-    <row r="4" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="S3" s="271"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+    </row>
+    <row r="4" spans="2:27" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
@@ -4175,70 +4931,93 @@
       <c r="G4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="234" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="236"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="21" t="s">
+      <c r="I4" s="296"/>
+      <c r="J4" s="235"/>
+      <c r="K4" s="236" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="237" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="222"/>
+      <c r="N4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L4" s="22" t="s">
+      <c r="O4" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="23" t="s">
+      <c r="P4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="Q4" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="25" t="s">
+      <c r="R4" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="26" t="s">
+      <c r="S4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-    </row>
-    <row r="5" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="T4" s="12"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+    </row>
+    <row r="5" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="28">
+        <v>11.8</v>
+      </c>
+      <c r="D5" s="29">
+        <v>1</v>
+      </c>
       <c r="E5" s="30"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32">
-        <f t="shared" ref="H5:I38" si="0">F5+C5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="37">
-        <f>K5-H5</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="38">
-        <f>L5-I5</f>
-        <v>0</v>
-      </c>
-      <c r="O5" s="216"/>
-      <c r="P5" s="216"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-    </row>
-    <row r="6" spans="2:24" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="28">
+        <v>524.38</v>
+      </c>
+      <c r="G5" s="31">
+        <v>43</v>
+      </c>
+      <c r="H5" s="223">
+        <f t="shared" ref="H5:I41" si="0">F5+C5</f>
+        <v>536.17999999999995</v>
+      </c>
+      <c r="I5" s="41">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="J5" s="219"/>
+      <c r="K5" s="217">
+        <v>536.17999999999995</v>
+      </c>
+      <c r="L5" s="218">
+        <v>44</v>
+      </c>
+      <c r="M5" s="42"/>
+      <c r="N5" s="242">
+        <v>536.16</v>
+      </c>
+      <c r="O5" s="243"/>
+      <c r="P5" s="239">
+        <f t="shared" ref="P5:P26" si="1">N5-H5</f>
+        <v>-1.999999999998181E-2</v>
+      </c>
+      <c r="Q5" s="38">
+        <v>0</v>
+      </c>
+      <c r="R5" s="272"/>
+      <c r="S5" s="272"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+    </row>
+    <row r="6" spans="2:27" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="27" t="s">
         <v>13</v>
       </c>
@@ -4247,7 +5026,7 @@
       <c r="E6" s="30"/>
       <c r="F6" s="28"/>
       <c r="G6" s="31"/>
-      <c r="H6" s="40">
+      <c r="H6" s="223">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4255,64 +5034,79 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="43">
-        <f t="shared" ref="M6:N23" si="1">K6-H6</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="44">
+      <c r="J6" s="219"/>
+      <c r="K6" s="213"/>
+      <c r="L6" s="214"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="244"/>
+      <c r="O6" s="245"/>
+      <c r="P6" s="240">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O6" s="217"/>
-      <c r="P6" s="217"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="1"/>
-    </row>
-    <row r="7" spans="2:24" ht="23.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="Q6" s="44">
+        <f>O6-I6</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="273"/>
+      <c r="S6" s="273"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="46"/>
+      <c r="W6" s="47"/>
+      <c r="X6" s="48"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="50"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="27" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="40">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="F7" s="28">
+        <v>1007.32</v>
+      </c>
+      <c r="G7" s="31">
+        <v>82</v>
+      </c>
+      <c r="H7" s="223">
+        <f t="shared" si="0"/>
+        <v>1007.32</v>
       </c>
       <c r="I7" s="41">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="51">
+        <v>82</v>
+      </c>
+      <c r="J7" s="219"/>
+      <c r="K7" s="213">
+        <v>1007.32</v>
+      </c>
+      <c r="L7" s="214">
+        <v>82</v>
+      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="244">
+        <v>957.99</v>
+      </c>
+      <c r="O7" s="245"/>
+      <c r="P7" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N7" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="53"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="180"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-    </row>
-    <row r="8" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>-49.330000000000041</v>
+      </c>
+      <c r="Q7" s="52">
+        <v>0</v>
+      </c>
+      <c r="R7" s="53"/>
+      <c r="S7" s="54"/>
+      <c r="T7" s="180"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+    </row>
+    <row r="8" spans="2:27" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="30" t="s">
         <v>14</v>
       </c>
@@ -4321,7 +5115,7 @@
       <c r="E8" s="28"/>
       <c r="F8" s="28"/>
       <c r="G8" s="31"/>
-      <c r="H8" s="55">
+      <c r="H8" s="224">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4329,60 +5123,78 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="51">
+      <c r="J8" s="219"/>
+      <c r="K8" s="213"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="244"/>
+      <c r="O8" s="245"/>
+      <c r="P8" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N8" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O8" s="218"/>
-      <c r="P8" s="218"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-    </row>
-    <row r="9" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q8" s="52">
+        <v>0</v>
+      </c>
+      <c r="R8" s="274"/>
+      <c r="S8" s="274"/>
+      <c r="T8" s="45"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+    </row>
+    <row r="9" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="28">
+        <v>18.760000000000002</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1</v>
+      </c>
       <c r="E9" s="102"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I9" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="42"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="51">
+      <c r="F9" s="28">
+        <v>1031.53</v>
+      </c>
+      <c r="G9" s="31">
+        <v>54</v>
+      </c>
+      <c r="H9" s="224">
+        <f t="shared" si="0"/>
+        <v>1050.29</v>
+      </c>
+      <c r="I9" s="225">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="J9" s="219"/>
+      <c r="K9" s="213">
+        <v>1050.29</v>
+      </c>
+      <c r="L9" s="214">
+        <v>55</v>
+      </c>
+      <c r="M9" s="42"/>
+      <c r="N9" s="244">
+        <v>1050.6500000000001</v>
+      </c>
+      <c r="O9" s="245"/>
+      <c r="P9" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N9" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O9" s="57"/>
-      <c r="P9" s="58"/>
-      <c r="Q9" s="45"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-    </row>
-    <row r="10" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>0.36000000000012733</v>
+      </c>
+      <c r="Q9" s="52">
+        <v>0</v>
+      </c>
+      <c r="R9" s="57"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+    </row>
+    <row r="10" spans="2:27" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="30" t="s">
         <v>16</v>
       </c>
@@ -4391,138 +5203,176 @@
       <c r="E10" s="193"/>
       <c r="F10" s="28"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="51">
+      <c r="H10" s="224">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="219"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="214"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="244"/>
+      <c r="O10" s="245"/>
+      <c r="P10" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N10" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O10" s="219"/>
-      <c r="P10" s="219"/>
-      <c r="Q10" s="45"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-    </row>
-    <row r="11" spans="2:24" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q10" s="52">
+        <v>0</v>
+      </c>
+      <c r="R10" s="275"/>
+      <c r="S10" s="275"/>
+      <c r="T10" s="45"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+    </row>
+    <row r="11" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="30" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="29"/>
       <c r="E11" s="30"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="42"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="51">
+      <c r="F11" s="28">
+        <v>140</v>
+      </c>
+      <c r="G11" s="31">
+        <v>14</v>
+      </c>
+      <c r="H11" s="224">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="I11" s="225">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J11" s="219"/>
+      <c r="K11" s="238">
+        <v>140</v>
+      </c>
+      <c r="L11" s="214">
+        <v>14</v>
+      </c>
+      <c r="M11" s="42"/>
+      <c r="N11" s="244">
+        <v>140</v>
+      </c>
+      <c r="O11" s="245"/>
+      <c r="P11" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N11" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O11" s="210"/>
-      <c r="P11" s="210"/>
-      <c r="Q11" s="45"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-    </row>
-    <row r="12" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q11" s="52">
+        <v>0</v>
+      </c>
+      <c r="R11" s="210"/>
+      <c r="S11" s="210"/>
+      <c r="T11" s="45"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+    </row>
+    <row r="12" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="30" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="60"/>
       <c r="D12" s="29"/>
       <c r="E12" s="30"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="42"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="51">
+      <c r="F12" s="60">
+        <v>100</v>
+      </c>
+      <c r="G12" s="31">
+        <v>10</v>
+      </c>
+      <c r="H12" s="226">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="I12" s="225">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J12" s="219"/>
+      <c r="K12" s="238">
+        <v>100</v>
+      </c>
+      <c r="L12" s="214">
+        <v>10</v>
+      </c>
+      <c r="M12" s="42"/>
+      <c r="N12" s="244">
+        <v>100</v>
+      </c>
+      <c r="O12" s="245"/>
+      <c r="P12" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N12" s="52">
-        <f>L12-I12</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="62"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="45"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-    </row>
-    <row r="13" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q12" s="52">
+        <v>0</v>
+      </c>
+      <c r="R12" s="62"/>
+      <c r="S12" s="63"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+    </row>
+    <row r="13" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="64" t="s">
         <v>20</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="29"/>
       <c r="E13" s="30"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="42"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="51">
+      <c r="F13" s="28">
+        <v>1357.67</v>
+      </c>
+      <c r="G13" s="31">
+        <v>39</v>
+      </c>
+      <c r="H13" s="227">
+        <f t="shared" si="0"/>
+        <v>1357.67</v>
+      </c>
+      <c r="I13" s="225">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="J13" s="219"/>
+      <c r="K13" s="213">
+        <v>1357.67</v>
+      </c>
+      <c r="L13" s="214">
+        <v>39</v>
+      </c>
+      <c r="M13" s="42"/>
+      <c r="N13" s="244">
+        <v>1388.06</v>
+      </c>
+      <c r="O13" s="245"/>
+      <c r="P13" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N13" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O13" s="220"/>
-      <c r="P13" s="220"/>
-      <c r="Q13" s="45"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="13"/>
-    </row>
-    <row r="14" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30.389999999999873</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>0</v>
+      </c>
+      <c r="R13" s="276"/>
+      <c r="S13" s="276"/>
+      <c r="T13" s="45"/>
+      <c r="U13" s="66"/>
+      <c r="V13" s="66"/>
+      <c r="W13" s="13"/>
+    </row>
+    <row r="14" spans="2:27" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="30" t="s">
         <v>21</v>
       </c>
@@ -4531,138 +5381,176 @@
       <c r="E14" s="30"/>
       <c r="F14" s="28"/>
       <c r="G14" s="31"/>
-      <c r="H14" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="51">
+      <c r="H14" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="219"/>
+      <c r="K14" s="213"/>
+      <c r="L14" s="214"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="244"/>
+      <c r="O14" s="245"/>
+      <c r="P14" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N14" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O14" s="67"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="45"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="13"/>
-    </row>
-    <row r="15" spans="2:24" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q14" s="52">
+        <v>0</v>
+      </c>
+      <c r="R14" s="67"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+    </row>
+    <row r="15" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="30" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="28"/>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="42"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="51">
+      <c r="F15" s="28">
+        <v>9841.4</v>
+      </c>
+      <c r="G15" s="31">
+        <v>330</v>
+      </c>
+      <c r="H15" s="227">
+        <f t="shared" si="0"/>
+        <v>9841.4</v>
+      </c>
+      <c r="I15" s="225">
+        <f t="shared" si="0"/>
+        <v>330</v>
+      </c>
+      <c r="J15" s="219"/>
+      <c r="K15" s="248">
+        <v>9841.4</v>
+      </c>
+      <c r="L15" s="214">
+        <v>330</v>
+      </c>
+      <c r="M15" s="42"/>
+      <c r="N15" s="244">
+        <v>9846.34</v>
+      </c>
+      <c r="O15" s="245"/>
+      <c r="P15" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O15" s="67"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="45"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="13"/>
-    </row>
-    <row r="16" spans="2:24" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>4.9400000000005093</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>0</v>
+      </c>
+      <c r="R15" s="67"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+    </row>
+    <row r="16" spans="2:27" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="29"/>
+      <c r="C16" s="28">
+        <v>54.44</v>
+      </c>
+      <c r="D16" s="29">
+        <v>4</v>
+      </c>
       <c r="E16" s="30"/>
       <c r="F16" s="28"/>
       <c r="G16" s="31"/>
-      <c r="H16" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="42"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="51">
+      <c r="H16" s="227">
+        <f t="shared" si="0"/>
+        <v>54.44</v>
+      </c>
+      <c r="I16" s="225">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="219"/>
+      <c r="K16" s="213">
+        <v>54.44</v>
+      </c>
+      <c r="L16" s="214">
+        <v>4</v>
+      </c>
+      <c r="M16" s="42"/>
+      <c r="N16" s="244">
+        <v>54.44</v>
+      </c>
+      <c r="O16" s="245"/>
+      <c r="P16" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N16" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O16" s="69"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="13"/>
-    </row>
-    <row r="17" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q16" s="52">
+        <v>0</v>
+      </c>
+      <c r="R16" s="69"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+    </row>
+    <row r="17" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="30" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="42"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="51">
+      <c r="F17" s="28">
+        <v>291.91000000000003</v>
+      </c>
+      <c r="G17" s="31">
+        <v>11</v>
+      </c>
+      <c r="H17" s="227">
+        <f t="shared" si="0"/>
+        <v>291.91000000000003</v>
+      </c>
+      <c r="I17" s="225">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J17" s="219"/>
+      <c r="K17" s="213">
+        <v>291.91000000000003</v>
+      </c>
+      <c r="L17" s="214">
+        <v>11</v>
+      </c>
+      <c r="M17" s="42"/>
+      <c r="N17" s="244">
+        <v>261.52</v>
+      </c>
+      <c r="O17" s="245"/>
+      <c r="P17" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O17" s="69"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="45"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="13"/>
-    </row>
-    <row r="18" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-30.390000000000043</v>
+      </c>
+      <c r="Q17" s="52">
+        <v>0</v>
+      </c>
+      <c r="R17" s="69"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+    </row>
+    <row r="18" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="30" t="s">
         <v>25</v>
       </c>
@@ -4671,138 +5559,180 @@
       <c r="E18" s="30"/>
       <c r="F18" s="28"/>
       <c r="G18" s="31"/>
-      <c r="H18" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="42"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="51">
+      <c r="H18" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="219"/>
+      <c r="K18" s="213"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="244"/>
+      <c r="O18" s="245"/>
+      <c r="P18" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N18" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O18" s="71"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="45"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="13"/>
-    </row>
-    <row r="19" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q18" s="52">
+        <v>0</v>
+      </c>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+    </row>
+    <row r="19" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="51">
+      <c r="F19" s="28">
+        <v>5065.3100000000004</v>
+      </c>
+      <c r="G19" s="31">
+        <v>245</v>
+      </c>
+      <c r="H19" s="227">
+        <f t="shared" si="0"/>
+        <v>5065.3100000000004</v>
+      </c>
+      <c r="I19" s="225">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="J19" s="219"/>
+      <c r="K19" s="213">
+        <v>5065.3100000000004</v>
+      </c>
+      <c r="L19" s="214">
+        <v>245</v>
+      </c>
+      <c r="M19" s="42"/>
+      <c r="N19" s="244">
+        <v>5065.3100000000004</v>
+      </c>
+      <c r="O19" s="245"/>
+      <c r="P19" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N19" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O19" s="73"/>
-      <c r="P19" s="74"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
-      <c r="T19" s="13"/>
-    </row>
-    <row r="20" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="52">
+        <v>0</v>
+      </c>
+      <c r="R19" s="73"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="45"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+    </row>
+    <row r="20" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="42"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="51">
+      <c r="F20" s="28">
+        <v>649.22</v>
+      </c>
+      <c r="G20" s="31">
+        <v>143</v>
+      </c>
+      <c r="H20" s="227">
+        <f t="shared" si="0"/>
+        <v>649.22</v>
+      </c>
+      <c r="I20" s="225">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="J20" s="219"/>
+      <c r="K20" s="213">
+        <v>649.22</v>
+      </c>
+      <c r="L20" s="214">
+        <v>143</v>
+      </c>
+      <c r="M20" s="42"/>
+      <c r="N20" s="244">
+        <v>649.22</v>
+      </c>
+      <c r="O20" s="245"/>
+      <c r="P20" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N20" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O20" s="221"/>
-      <c r="P20" s="221"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="13"/>
-    </row>
-    <row r="21" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q20" s="52">
+        <v>0</v>
+      </c>
+      <c r="R20" s="277"/>
+      <c r="S20" s="277"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+    </row>
+    <row r="21" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="29"/>
+      <c r="C21" s="28">
+        <v>545.70000000000005</v>
+      </c>
+      <c r="D21" s="29">
+        <v>22</v>
+      </c>
       <c r="E21" s="30"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="42"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="51">
+      <c r="F21" s="28">
+        <v>1029.8699999999999</v>
+      </c>
+      <c r="G21" s="31">
+        <v>43</v>
+      </c>
+      <c r="H21" s="227">
+        <f t="shared" si="0"/>
+        <v>1575.57</v>
+      </c>
+      <c r="I21" s="225">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="J21" s="219"/>
+      <c r="K21" s="213">
+        <v>1575.57</v>
+      </c>
+      <c r="L21" s="214">
+        <v>65</v>
+      </c>
+      <c r="M21" s="42"/>
+      <c r="N21" s="244">
+        <v>1029.8699999999999</v>
+      </c>
+      <c r="O21" s="245"/>
+      <c r="P21" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O21" s="75"/>
-      <c r="P21" s="76"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="77"/>
-      <c r="S21" s="77"/>
-      <c r="T21" s="13"/>
-    </row>
-    <row r="22" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-545.70000000000005</v>
+      </c>
+      <c r="Q21" s="52">
+        <v>0</v>
+      </c>
+      <c r="R21" s="75"/>
+      <c r="S21" s="76"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="13"/>
+    </row>
+    <row r="22" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="30" t="s">
         <v>28</v>
       </c>
@@ -4811,853 +5741,1146 @@
       <c r="E22" s="30"/>
       <c r="F22" s="28"/>
       <c r="G22" s="31"/>
-      <c r="H22" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="42"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="51">
+      <c r="H22" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="219"/>
+      <c r="K22" s="213"/>
+      <c r="L22" s="214"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="244"/>
+      <c r="O22" s="245"/>
+      <c r="P22" s="241">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N22" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O22" s="222"/>
-      <c r="P22" s="222"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="78"/>
-      <c r="S22" s="78"/>
-      <c r="T22" s="13"/>
-    </row>
-    <row r="23" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Q22" s="52">
+        <v>0</v>
+      </c>
+      <c r="R22" s="278"/>
+      <c r="S22" s="278"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="78"/>
+      <c r="V22" s="78"/>
+      <c r="W22" s="13"/>
+    </row>
+    <row r="23" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="29"/>
+      <c r="C23" s="28">
+        <v>1241.5999999999999</v>
+      </c>
+      <c r="D23" s="29">
+        <v>60</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="28"/>
       <c r="G23" s="31"/>
-      <c r="H23" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="42"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="51">
+      <c r="H23" s="227">
+        <f t="shared" si="0"/>
+        <v>1241.5999999999999</v>
+      </c>
+      <c r="I23" s="225">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="J23" s="219"/>
+      <c r="K23" s="213">
+        <v>1241.95</v>
+      </c>
+      <c r="L23" s="214">
+        <v>60</v>
+      </c>
+      <c r="M23" s="42"/>
+      <c r="N23" s="244">
+        <v>1240.9000000000001</v>
+      </c>
+      <c r="O23" s="245"/>
+      <c r="P23" s="241">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O23" s="223"/>
-      <c r="P23" s="223"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
-      <c r="T23" s="13"/>
-    </row>
-    <row r="24" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>-0.6999999999998181</v>
+      </c>
+      <c r="Q23" s="52">
+        <v>0</v>
+      </c>
+      <c r="R23" s="279"/>
+      <c r="S23" s="279"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+    </row>
+    <row r="24" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
+      <c r="C24" s="28">
+        <v>4505.26</v>
+      </c>
+      <c r="D24" s="29">
+        <v>154</v>
+      </c>
       <c r="E24" s="30"/>
       <c r="F24" s="28"/>
       <c r="G24" s="31"/>
-      <c r="H24" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="80"/>
-      <c r="M24" s="51">
-        <f t="shared" ref="M24:N39" si="2">K24-H24</f>
-        <v>0</v>
-      </c>
-      <c r="N24" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O24" s="81"/>
-      <c r="P24" s="82"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
-      <c r="T24" s="13"/>
-    </row>
-    <row r="25" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24" s="227">
+        <f t="shared" si="0"/>
+        <v>4505.26</v>
+      </c>
+      <c r="I24" s="225">
+        <f t="shared" si="0"/>
+        <v>154</v>
+      </c>
+      <c r="J24" s="219"/>
+      <c r="K24" s="213">
+        <v>4505.3599999999997</v>
+      </c>
+      <c r="L24" s="214">
+        <v>154</v>
+      </c>
+      <c r="M24" s="42"/>
+      <c r="N24" s="244">
+        <v>4505.47</v>
+      </c>
+      <c r="O24" s="245"/>
+      <c r="P24" s="241">
+        <f t="shared" si="1"/>
+        <v>0.21000000000003638</v>
+      </c>
+      <c r="Q24" s="52">
+        <v>0</v>
+      </c>
+      <c r="R24" s="81"/>
+      <c r="S24" s="82"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+    </row>
+    <row r="25" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
       <c r="E25" s="30"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="42"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N25" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O25" s="83"/>
-      <c r="P25" s="84"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-    </row>
-    <row r="26" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="28">
+        <v>2640</v>
+      </c>
+      <c r="G25" s="31">
+        <v>132</v>
+      </c>
+      <c r="H25" s="227">
+        <f t="shared" si="0"/>
+        <v>2640</v>
+      </c>
+      <c r="I25" s="225">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="J25" s="219"/>
+      <c r="K25" s="238">
+        <v>2640</v>
+      </c>
+      <c r="L25" s="214">
+        <v>132</v>
+      </c>
+      <c r="M25" s="42"/>
+      <c r="N25" s="244">
+        <v>2640</v>
+      </c>
+      <c r="O25" s="245"/>
+      <c r="P25" s="241">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="52">
+        <v>0</v>
+      </c>
+      <c r="R25" s="83"/>
+      <c r="S25" s="84"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+    </row>
+    <row r="26" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="29"/>
+      <c r="C26" s="28">
+        <v>15893.44</v>
+      </c>
+      <c r="D26" s="29">
+        <v>584</v>
+      </c>
       <c r="E26" s="30"/>
       <c r="F26" s="28"/>
       <c r="G26" s="31"/>
-      <c r="H26" s="65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="42"/>
-      <c r="K26" s="85"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="51">
-        <f>K26-H26</f>
-        <v>0</v>
-      </c>
-      <c r="N26" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O26" s="224"/>
-      <c r="P26" s="224"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-    </row>
-    <row r="27" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="30" t="s">
-        <v>32</v>
+      <c r="H26" s="227">
+        <f t="shared" si="0"/>
+        <v>15893.44</v>
+      </c>
+      <c r="I26" s="225">
+        <f t="shared" si="0"/>
+        <v>584</v>
+      </c>
+      <c r="J26" s="219"/>
+      <c r="K26" s="213">
+        <v>15893.44</v>
+      </c>
+      <c r="L26" s="214">
+        <v>584</v>
+      </c>
+      <c r="M26" s="42"/>
+      <c r="N26" s="244">
+        <v>15297.64</v>
+      </c>
+      <c r="O26" s="245"/>
+      <c r="P26" s="249">
+        <f t="shared" si="1"/>
+        <v>-595.80000000000109</v>
+      </c>
+      <c r="Q26" s="52">
+        <v>0</v>
+      </c>
+      <c r="R26" s="280"/>
+      <c r="S26" s="280"/>
+      <c r="T26" s="45"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13"/>
+    </row>
+    <row r="27" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="212" t="s">
+        <v>58</v>
       </c>
       <c r="C27" s="28"/>
       <c r="D27" s="29"/>
       <c r="E27" s="30"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="42"/>
-      <c r="K27" s="85"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N27" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O27" s="90"/>
-      <c r="P27" s="91"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-    </row>
-    <row r="28" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="30" t="s">
-        <v>53</v>
+      <c r="F27" s="87">
+        <v>830</v>
+      </c>
+      <c r="G27" s="88">
+        <v>83</v>
+      </c>
+      <c r="H27" s="227">
+        <f t="shared" si="0"/>
+        <v>830</v>
+      </c>
+      <c r="I27" s="225">
+        <f t="shared" si="0"/>
+        <v>83</v>
+      </c>
+      <c r="J27" s="219"/>
+      <c r="K27" s="238">
+        <v>830</v>
+      </c>
+      <c r="L27" s="214">
+        <v>83</v>
+      </c>
+      <c r="M27" s="42"/>
+      <c r="N27" s="244">
+        <v>830</v>
+      </c>
+      <c r="O27" s="245"/>
+      <c r="P27" s="241">
+        <f t="shared" ref="P27:P32" si="2">N27-H27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="52">
+        <v>0</v>
+      </c>
+      <c r="R27" s="211"/>
+      <c r="S27" s="211"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+    </row>
+    <row r="28" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="212" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="29"/>
       <c r="E28" s="30"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="42"/>
-      <c r="K28" s="85"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="51">
+      <c r="F28" s="87">
+        <v>1410</v>
+      </c>
+      <c r="G28" s="88">
+        <v>141</v>
+      </c>
+      <c r="H28" s="227">
+        <f t="shared" si="0"/>
+        <v>1410</v>
+      </c>
+      <c r="I28" s="225">
+        <f t="shared" si="0"/>
+        <v>141</v>
+      </c>
+      <c r="J28" s="219"/>
+      <c r="K28" s="238">
+        <v>1410</v>
+      </c>
+      <c r="L28" s="214">
+        <v>141</v>
+      </c>
+      <c r="M28" s="42"/>
+      <c r="N28" s="244">
+        <v>690</v>
+      </c>
+      <c r="O28" s="245"/>
+      <c r="P28" s="249">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N28" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O28" s="92"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="45"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-    </row>
-    <row r="29" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30" t="s">
-        <v>31</v>
+        <v>-720</v>
+      </c>
+      <c r="Q28" s="52">
+        <v>0</v>
+      </c>
+      <c r="R28" s="211"/>
+      <c r="S28" s="211"/>
+      <c r="T28" s="45"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="212" t="s">
+        <v>57</v>
       </c>
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="42"/>
-      <c r="K29" s="85"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="51">
+      <c r="F29" s="87">
+        <v>1440</v>
+      </c>
+      <c r="G29" s="88">
+        <v>144</v>
+      </c>
+      <c r="H29" s="227">
+        <f t="shared" si="0"/>
+        <v>1440</v>
+      </c>
+      <c r="I29" s="225">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="J29" s="219"/>
+      <c r="K29" s="238">
+        <v>1440</v>
+      </c>
+      <c r="L29" s="214">
+        <v>144</v>
+      </c>
+      <c r="M29" s="42"/>
+      <c r="N29" s="244">
+        <v>1464</v>
+      </c>
+      <c r="O29" s="245"/>
+      <c r="P29" s="249">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N29" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O29" s="92"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="45"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-    </row>
-    <row r="30" spans="2:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="Q29" s="52">
+        <v>0</v>
+      </c>
+      <c r="R29" s="211"/>
+      <c r="S29" s="211"/>
+      <c r="T29" s="45"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="30" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C30" s="28"/>
       <c r="D30" s="29"/>
       <c r="E30" s="30"/>
       <c r="F30" s="87"/>
       <c r="G30" s="88"/>
-      <c r="H30" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="42"/>
-      <c r="K30" s="85"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="51">
+      <c r="H30" s="227">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="225">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="219"/>
+      <c r="K30" s="213"/>
+      <c r="L30" s="214"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="244"/>
+      <c r="O30" s="245"/>
+      <c r="P30" s="241">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N30" s="52">
+      <c r="Q30" s="52">
+        <v>0</v>
+      </c>
+      <c r="R30" s="90"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="45"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="2:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B31" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="87">
+        <v>3213.25</v>
+      </c>
+      <c r="G31" s="88">
+        <v>120</v>
+      </c>
+      <c r="H31" s="226">
+        <f t="shared" si="0"/>
+        <v>3213.25</v>
+      </c>
+      <c r="I31" s="228">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="J31" s="219"/>
+      <c r="K31" s="213">
+        <v>3213.16</v>
+      </c>
+      <c r="L31" s="214">
+        <v>120</v>
+      </c>
+      <c r="M31" s="42"/>
+      <c r="N31" s="244">
+        <v>3214.03</v>
+      </c>
+      <c r="O31" s="245"/>
+      <c r="P31" s="241">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="45"/>
-      <c r="R30" s="13"/>
-      <c r="S30" s="13"/>
-      <c r="T30" s="13"/>
-    </row>
-    <row r="31" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="190" t="s">
+        <v>0.78000000000020009</v>
+      </c>
+      <c r="Q31" s="52">
+        <v>0</v>
+      </c>
+      <c r="R31" s="92"/>
+      <c r="S31" s="93"/>
+      <c r="T31" s="45"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="2:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="219"/>
+      <c r="K32" s="213"/>
+      <c r="L32" s="214"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="244"/>
+      <c r="O32" s="245"/>
+      <c r="P32" s="241">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="52">
+        <v>0</v>
+      </c>
+      <c r="R32" s="92"/>
+      <c r="S32" s="93"/>
+      <c r="T32" s="45"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B33" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="88"/>
+      <c r="H33" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="219"/>
+      <c r="K33" s="213"/>
+      <c r="L33" s="214"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="244"/>
+      <c r="O33" s="245"/>
+      <c r="P33" s="241">
+        <f t="shared" ref="P33:P42" si="3">N33-H33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="52">
+        <v>0</v>
+      </c>
+      <c r="R33" s="94"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="45"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="190" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="96"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="96"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="42"/>
-      <c r="K31" s="85"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N31" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O31" s="100"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="45"/>
-      <c r="R31" s="13"/>
-      <c r="S31" s="13"/>
-      <c r="T31" s="13"/>
-    </row>
-    <row r="32" spans="2:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="189" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="96"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="96"/>
-      <c r="G32" s="103"/>
-      <c r="H32" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="42"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N32" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O32" s="104"/>
-      <c r="P32" s="105"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="13"/>
-      <c r="S32" s="13"/>
-      <c r="T32" s="13"/>
-    </row>
-    <row r="33" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="102" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="96"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="42"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N33" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O33" s="104"/>
-      <c r="P33" s="105"/>
-      <c r="Q33" s="45"/>
-      <c r="R33" s="13"/>
-      <c r="S33" s="13"/>
-      <c r="T33" s="13"/>
-    </row>
-    <row r="34" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="110" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="111"/>
+      <c r="C34" s="96"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="98"/>
       <c r="F34" s="96"/>
       <c r="G34" s="103"/>
-      <c r="H34" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="42"/>
-      <c r="K34" s="85"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N34" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O34" s="107"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="45"/>
-      <c r="R34" s="13"/>
-      <c r="S34" s="13"/>
-      <c r="T34" s="13"/>
-    </row>
-    <row r="35" spans="1:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="109"/>
-      <c r="B35" s="106" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="28"/>
-      <c r="D35" s="29"/>
+      <c r="H34" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="219"/>
+      <c r="K34" s="213"/>
+      <c r="L34" s="214"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="244"/>
+      <c r="O34" s="245"/>
+      <c r="P34" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="52">
+        <v>0</v>
+      </c>
+      <c r="R34" s="100"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="45"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="189" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="96"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="102"/>
-      <c r="F35" s="96"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="89">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="42"/>
-      <c r="K35" s="85"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O35" s="107"/>
-      <c r="P35" s="108"/>
-      <c r="Q35" s="45"/>
-      <c r="R35" s="13"/>
-      <c r="S35" s="13"/>
-      <c r="T35" s="13"/>
-    </row>
-    <row r="36" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="191" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
+      <c r="F35" s="96">
+        <v>4698.9399999999996</v>
+      </c>
+      <c r="G35" s="103">
+        <v>207</v>
+      </c>
+      <c r="H35" s="226">
+        <f t="shared" si="0"/>
+        <v>4698.9399999999996</v>
+      </c>
+      <c r="I35" s="228">
+        <f t="shared" si="0"/>
+        <v>207</v>
+      </c>
+      <c r="J35" s="219"/>
+      <c r="K35" s="213">
+        <v>4698.9399999999996</v>
+      </c>
+      <c r="L35" s="214">
+        <v>207</v>
+      </c>
+      <c r="M35" s="42"/>
+      <c r="N35" s="244">
+        <v>4698.9399999999996</v>
+      </c>
+      <c r="O35" s="245"/>
+      <c r="P35" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="52">
+        <v>0</v>
+      </c>
+      <c r="R35" s="104"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="45"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B36" s="102" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" s="96"/>
+      <c r="D36" s="97"/>
       <c r="E36" s="102"/>
       <c r="F36" s="96"/>
       <c r="G36" s="103"/>
-      <c r="H36" s="112">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="113">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="42"/>
-      <c r="K36" s="85"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O36" s="114"/>
-      <c r="P36" s="114"/>
-      <c r="Q36" s="45"/>
-      <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
-      <c r="T36" s="13"/>
-    </row>
-    <row r="37" spans="1:20" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="192" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="115"/>
-      <c r="D37" s="29"/>
+      <c r="H36" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="219"/>
+      <c r="K36" s="213"/>
+      <c r="L36" s="214"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="244"/>
+      <c r="O36" s="245"/>
+      <c r="P36" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="52">
+        <v>0</v>
+      </c>
+      <c r="R36" s="104"/>
+      <c r="S36" s="105"/>
+      <c r="T36" s="45"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="28">
+        <v>8364.43</v>
+      </c>
+      <c r="D37" s="29">
+        <v>282</v>
+      </c>
       <c r="E37" s="111"/>
       <c r="F37" s="96"/>
       <c r="G37" s="103"/>
-      <c r="H37" s="112">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="113">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="42"/>
-      <c r="K37" s="85"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="51">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N37" s="52">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O37" s="116"/>
-      <c r="P37" s="117"/>
-      <c r="Q37" s="45"/>
-      <c r="R37" s="13"/>
-      <c r="S37" s="13"/>
-      <c r="T37" s="13"/>
-    </row>
-    <row r="38" spans="1:20" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="27" t="s">
+      <c r="H37" s="226">
+        <f t="shared" si="0"/>
+        <v>8364.43</v>
+      </c>
+      <c r="I37" s="228">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="J37" s="219"/>
+      <c r="K37" s="213">
+        <v>8364.43</v>
+      </c>
+      <c r="L37" s="214">
+        <v>282</v>
+      </c>
+      <c r="M37" s="42"/>
+      <c r="N37" s="244">
+        <v>8364.43</v>
+      </c>
+      <c r="O37" s="245"/>
+      <c r="P37" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="52">
+        <v>0</v>
+      </c>
+      <c r="R37" s="107"/>
+      <c r="S37" s="108"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="109"/>
+      <c r="B38" s="191" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="103"/>
+      <c r="H38" s="226">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="228">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="219"/>
+      <c r="K38" s="213"/>
+      <c r="L38" s="214"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="244"/>
+      <c r="O38" s="245"/>
+      <c r="P38" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="52">
+        <v>0</v>
+      </c>
+      <c r="R38" s="107"/>
+      <c r="S38" s="108"/>
+      <c r="T38" s="45"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="106" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="102"/>
+      <c r="F39" s="96">
+        <v>1763.51</v>
+      </c>
+      <c r="G39" s="103">
+        <v>70</v>
+      </c>
+      <c r="H39" s="229">
+        <f t="shared" si="0"/>
+        <v>1763.51</v>
+      </c>
+      <c r="I39" s="230">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J39" s="219"/>
+      <c r="K39" s="213">
+        <v>1763.61</v>
+      </c>
+      <c r="L39" s="214">
+        <v>70</v>
+      </c>
+      <c r="M39" s="42"/>
+      <c r="N39" s="244">
+        <v>1763.61</v>
+      </c>
+      <c r="O39" s="245"/>
+      <c r="P39" s="241">
+        <f t="shared" si="3"/>
+        <v>9.9999999999909051E-2</v>
+      </c>
+      <c r="Q39" s="52">
+        <v>0</v>
+      </c>
+      <c r="R39" s="114"/>
+      <c r="S39" s="114"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:23" ht="23.25" hidden="1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="192" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="115"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="103"/>
+      <c r="H40" s="229">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="230">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="219"/>
+      <c r="K40" s="213"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="244"/>
+      <c r="O40" s="245"/>
+      <c r="P40" s="241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="52">
+        <v>0</v>
+      </c>
+      <c r="R40" s="116"/>
+      <c r="S40" s="117"/>
+      <c r="T40" s="45"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:23" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="C38" s="118"/>
-      <c r="D38" s="119"/>
-      <c r="E38" s="120"/>
-      <c r="F38" s="118"/>
-      <c r="G38" s="121"/>
-      <c r="H38" s="122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="124"/>
-      <c r="K38" s="125"/>
-      <c r="L38" s="126"/>
-      <c r="M38" s="127">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N38" s="128">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O38" s="129"/>
-      <c r="P38" s="130"/>
-      <c r="Q38" s="45"/>
-      <c r="R38" s="13"/>
-      <c r="S38" s="13"/>
-      <c r="T38" s="13"/>
-    </row>
-    <row r="39" spans="1:20" ht="20.25" hidden="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="131" t="s">
+      <c r="C41" s="118">
+        <v>1457.81</v>
+      </c>
+      <c r="D41" s="119">
+        <v>51</v>
+      </c>
+      <c r="E41" s="120"/>
+      <c r="F41" s="118"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="231">
+        <f t="shared" si="0"/>
+        <v>1457.81</v>
+      </c>
+      <c r="I41" s="232">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="J41" s="220"/>
+      <c r="K41" s="215">
+        <v>1457.81</v>
+      </c>
+      <c r="L41" s="216">
+        <v>51</v>
+      </c>
+      <c r="M41" s="124"/>
+      <c r="N41" s="246">
+        <v>1472.01</v>
+      </c>
+      <c r="O41" s="247"/>
+      <c r="P41" s="250">
+        <f t="shared" si="3"/>
+        <v>14.200000000000045</v>
+      </c>
+      <c r="Q41" s="52">
+        <v>0</v>
+      </c>
+      <c r="R41" s="129"/>
+      <c r="S41" s="130"/>
+      <c r="T41" s="45"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:23" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="131" t="s">
         <v>45</v>
       </c>
-      <c r="C39" s="132"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="135"/>
-      <c r="G39" s="136"/>
-      <c r="H39" s="137">
-        <f t="shared" ref="H39:I39" si="3">F39+C39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="138">
+      <c r="C42" s="132"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="134"/>
+      <c r="F42" s="135"/>
+      <c r="G42" s="136"/>
+      <c r="H42" s="137">
+        <f t="shared" ref="H42:I42" si="4">F42+C42</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="138">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="139"/>
+      <c r="O42" s="140"/>
+      <c r="P42" s="141">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J39" s="34"/>
-      <c r="K39" s="139"/>
-      <c r="L39" s="140"/>
-      <c r="M39" s="141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="O39" s="143"/>
-      <c r="P39" s="144"/>
-      <c r="Q39" s="45"/>
-      <c r="R39" s="13"/>
-      <c r="S39" s="13"/>
-      <c r="T39" s="13"/>
-    </row>
-    <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="145"/>
-      <c r="D40" s="147"/>
-      <c r="F40" s="211" t="s">
+      <c r="Q42" s="142">
+        <f>O42-I42</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="143"/>
+      <c r="S42" s="144"/>
+      <c r="T42" s="45"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="145"/>
+      <c r="D43" s="147"/>
+      <c r="F43" s="267" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="211"/>
-      <c r="H40" s="148">
-        <f>SUM(H5:H31)</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="149">
-        <f>SUM(I5:I31)</f>
-        <v>0</v>
-      </c>
-      <c r="J40" s="150"/>
-      <c r="K40" s="151">
-        <f>SUM(K5:K38)</f>
-        <v>0</v>
-      </c>
-      <c r="L40" s="152" t="s">
+      <c r="G43" s="267"/>
+      <c r="H43" s="148">
+        <f>SUM(H5:H34)</f>
+        <v>52842.86</v>
+      </c>
+      <c r="I43" s="149">
+        <f>SUM(I5:I34)</f>
+        <v>2460</v>
+      </c>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="150"/>
+      <c r="N43" s="151">
+        <f>SUM(N5:N41)</f>
+        <v>67260.59</v>
+      </c>
+      <c r="O43" s="152" t="s">
         <v>47</v>
       </c>
-      <c r="M40" s="153"/>
-      <c r="N40" s="154"/>
-      <c r="O40" s="155"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="45"/>
-      <c r="R40" s="13"/>
-      <c r="S40" s="13"/>
-      <c r="T40" s="13"/>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="M41" s="157"/>
-      <c r="N41" s="158"/>
-      <c r="O41" s="159"/>
-      <c r="Q41" s="45"/>
-      <c r="R41" s="13"/>
-      <c r="S41" s="13"/>
-      <c r="T41" s="13"/>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="B42" s="77"/>
-      <c r="C42" s="160"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="77"/>
-      <c r="G42" s="1"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="13"/>
-      <c r="S42" s="13"/>
-      <c r="T42" s="13"/>
-    </row>
-    <row r="43" spans="1:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="162" t="s">
+      <c r="P43" s="153"/>
+      <c r="Q43" s="154"/>
+      <c r="R43" s="155"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="45"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="P44" s="157"/>
+      <c r="Q44" s="158"/>
+      <c r="R44" s="159"/>
+      <c r="T44" s="45"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B45" s="77"/>
+      <c r="C45" s="160"/>
+      <c r="D45" s="77"/>
+      <c r="E45" s="77"/>
+      <c r="F45" s="77"/>
+      <c r="G45" s="1"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+    </row>
+    <row r="46" spans="1:23" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="D43" s="163"/>
-      <c r="E43" s="164"/>
-      <c r="F43" s="164"/>
-      <c r="G43" s="165"/>
-      <c r="H43" s="166"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="166"/>
-      <c r="K43" s="166"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="168"/>
-      <c r="N43" s="169"/>
-    </row>
-    <row r="44" spans="1:20" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="170" t="s">
-        <v>49</v>
-      </c>
-      <c r="D44" s="209" t="s">
-        <v>54</v>
-      </c>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="201"/>
-      <c r="H44" s="201"/>
-      <c r="I44" s="201"/>
-      <c r="J44" s="201"/>
-      <c r="K44" s="201"/>
-      <c r="L44" s="202"/>
-      <c r="M44" s="203"/>
-      <c r="N44" s="204"/>
-      <c r="O44" s="171"/>
-      <c r="P44" s="172"/>
-      <c r="Q44" s="173"/>
-      <c r="R44" s="174"/>
-    </row>
-    <row r="45" spans="1:20" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="175"/>
-      <c r="C45" s="176" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="205" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="206"/>
-      <c r="F45" s="206"/>
-      <c r="G45" s="206"/>
-      <c r="H45" s="206"/>
-      <c r="I45" s="206"/>
-      <c r="J45" s="206"/>
-      <c r="K45" s="206"/>
-      <c r="L45" s="206"/>
-      <c r="M45" s="207"/>
-      <c r="N45" s="208"/>
-    </row>
-    <row r="46" spans="1:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="175"/>
-      <c r="C46" s="176"/>
-      <c r="D46" s="177"/>
-      <c r="E46" s="77"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13"/>
-      <c r="L46" s="178"/>
-      <c r="M46" s="179"/>
-      <c r="N46" s="169"/>
-    </row>
-    <row r="47" spans="1:20" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="175"/>
-      <c r="C47" s="176"/>
-      <c r="D47" s="180"/>
-      <c r="E47" s="181"/>
-      <c r="F47" s="181"/>
-      <c r="G47" s="181"/>
-      <c r="H47" s="181"/>
-      <c r="I47" s="181"/>
-      <c r="J47" s="181"/>
-      <c r="K47" s="181"/>
-      <c r="L47" s="181"/>
-      <c r="M47" s="179"/>
-      <c r="N47" s="169"/>
-    </row>
-    <row r="48" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="163"/>
+      <c r="E46" s="164"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
+      <c r="L46" s="166"/>
+      <c r="M46" s="166"/>
+      <c r="N46" s="166"/>
+      <c r="O46" s="167"/>
+      <c r="P46" s="168"/>
+      <c r="Q46" s="169"/>
+    </row>
+    <row r="47" spans="1:23" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="170"/>
+      <c r="D47" s="209" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="200"/>
+      <c r="F47" s="200"/>
+      <c r="G47" s="201"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="201"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="201"/>
+      <c r="L47" s="201"/>
+      <c r="M47" s="201"/>
+      <c r="N47" s="201"/>
+      <c r="O47" s="202"/>
+      <c r="P47" s="203"/>
+      <c r="Q47" s="204"/>
+      <c r="R47" s="171"/>
+      <c r="S47" s="172"/>
+      <c r="T47" s="173"/>
+      <c r="U47" s="174"/>
+    </row>
+    <row r="48" spans="1:23" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="175"/>
       <c r="C48" s="176"/>
-      <c r="D48" s="182"/>
-      <c r="E48" s="183"/>
-      <c r="F48" s="183"/>
-      <c r="G48" s="183"/>
-      <c r="H48" s="183"/>
-      <c r="I48" s="183"/>
-      <c r="J48" s="183"/>
-      <c r="K48" s="183"/>
-      <c r="L48" s="178"/>
-      <c r="M48" s="184"/>
-      <c r="N48" s="185"/>
-    </row>
-    <row r="49" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="254"/>
+      <c r="E48" s="251"/>
+      <c r="F48" s="251"/>
+      <c r="G48" s="251"/>
+      <c r="H48" s="251"/>
+      <c r="I48" s="251"/>
+      <c r="J48" s="251"/>
+      <c r="K48" s="251"/>
+      <c r="L48" s="251"/>
+      <c r="M48" s="251"/>
+      <c r="N48" s="251"/>
+      <c r="O48" s="251"/>
+      <c r="P48" s="252"/>
+      <c r="Q48" s="253"/>
+    </row>
+    <row r="49" spans="2:17" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B49" s="175"/>
       <c r="C49" s="176"/>
-      <c r="D49" s="186"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
+      <c r="D49" s="177"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
-      <c r="L49" s="178"/>
-      <c r="M49" s="184"/>
-      <c r="N49" s="185"/>
-    </row>
-    <row r="50" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="178"/>
+      <c r="P49" s="179"/>
+      <c r="Q49" s="169"/>
+    </row>
+    <row r="50" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="175"/>
       <c r="C50" s="176"/>
-      <c r="D50" s="187"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-      <c r="L50" s="178"/>
-      <c r="M50" s="184"/>
-      <c r="N50" s="185"/>
-    </row>
-    <row r="51" spans="2:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="180"/>
+      <c r="E50" s="181"/>
+      <c r="F50" s="181"/>
+      <c r="G50" s="181"/>
+      <c r="H50" s="181"/>
+      <c r="I50" s="181"/>
+      <c r="J50" s="181"/>
+      <c r="K50" s="181"/>
+      <c r="L50" s="181"/>
+      <c r="M50" s="181"/>
+      <c r="N50" s="181"/>
+      <c r="O50" s="181"/>
+      <c r="P50" s="179"/>
+      <c r="Q50" s="169"/>
+    </row>
+    <row r="51" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B51" s="175"/>
       <c r="C51" s="176"/>
-      <c r="D51" s="188"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13"/>
-      <c r="L51" s="178"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B52" s="1"/>
+      <c r="D51" s="182"/>
+      <c r="E51" s="183"/>
+      <c r="F51" s="183"/>
+      <c r="G51" s="183"/>
+      <c r="H51" s="183"/>
+      <c r="I51" s="183"/>
+      <c r="J51" s="183"/>
+      <c r="K51" s="183"/>
+      <c r="L51" s="183"/>
+      <c r="M51" s="183"/>
+      <c r="N51" s="183"/>
+      <c r="O51" s="178"/>
+      <c r="P51" s="184"/>
+      <c r="Q51" s="185"/>
+    </row>
+    <row r="52" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="175"/>
+      <c r="C52" s="176"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="178"/>
+      <c r="P52" s="184"/>
+      <c r="Q52" s="185"/>
+    </row>
+    <row r="53" spans="2:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="175"/>
+      <c r="C53" s="176"/>
+      <c r="D53" s="187"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="178"/>
+      <c r="P53" s="184"/>
+      <c r="Q53" s="185"/>
+    </row>
+    <row r="54" spans="2:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="175"/>
+      <c r="C54" s="176"/>
+      <c r="D54" s="188"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="178"/>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B55" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
+  <mergeCells count="20">
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="R22:S22"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="R26:S26"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="I3:I4"/>
   </mergeCells>
-  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.27" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -5666,9 +6889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -5698,16 +6919,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/INVENTARIO ALMACEN FEB-2023 rtr.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/CENTRAL #02  FEBRERO 2023/INVENTARIO ALMACEN FEB-2023 rtr.xlsx
@@ -2596,6 +2596,48 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2631,48 +2673,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="15" fontId="6" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3049,10 +3049,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="256"/>
+      <c r="B1" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="270"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -3064,21 +3064,21 @@
       <c r="P1" s="6"/>
     </row>
     <row r="2" spans="2:24" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="257">
+      <c r="B2" s="271">
         <v>44955</v>
       </c>
-      <c r="C2" s="258"/>
-      <c r="F2" s="259" t="s">
+      <c r="C2" s="272"/>
+      <c r="F2" s="273" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="259"/>
-      <c r="H2" s="259"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
-      <c r="K2" s="260" t="s">
+      <c r="K2" s="274" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="260"/>
+      <c r="L2" s="274"/>
       <c r="M2" s="9"/>
       <c r="N2" s="10"/>
       <c r="Q2" s="12"/>
@@ -3088,30 +3088,30 @@
     </row>
     <row r="3" spans="2:24" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14"/>
-      <c r="C3" s="261" t="s">
+      <c r="C3" s="275" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="262"/>
+      <c r="D3" s="276"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="263" t="s">
+      <c r="F3" s="277" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="264"/>
+      <c r="G3" s="278"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="265" t="s">
+      <c r="I3" s="279" t="s">
         <v>3</v>
       </c>
       <c r="J3" s="16"/>
-      <c r="K3" s="260"/>
-      <c r="L3" s="260"/>
-      <c r="M3" s="268" t="s">
+      <c r="K3" s="274"/>
+      <c r="L3" s="274"/>
+      <c r="M3" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="269"/>
-      <c r="O3" s="270" t="s">
+      <c r="N3" s="257"/>
+      <c r="O3" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="271"/>
+      <c r="P3" s="259"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
@@ -3137,7 +3137,7 @@
       <c r="H4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="266"/>
+      <c r="I4" s="280"/>
       <c r="J4" s="16"/>
       <c r="K4" s="21" t="s">
         <v>10</v>
@@ -3198,8 +3198,8 @@
         <f>L5-I5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="272"/>
-      <c r="P5" s="272"/>
+      <c r="O5" s="260"/>
+      <c r="P5" s="260"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
@@ -3241,8 +3241,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O6" s="273"/>
-      <c r="P6" s="273"/>
+      <c r="O6" s="261"/>
+      <c r="P6" s="261"/>
       <c r="Q6" s="45"/>
       <c r="R6" s="13"/>
       <c r="S6" s="46"/>
@@ -3325,8 +3325,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O8" s="274"/>
-      <c r="P8" s="274"/>
+      <c r="O8" s="262"/>
+      <c r="P8" s="262"/>
       <c r="Q8" s="45"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
@@ -3407,8 +3407,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O10" s="275"/>
-      <c r="P10" s="275"/>
+      <c r="O10" s="263"/>
+      <c r="P10" s="263"/>
       <c r="Q10" s="45"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -3536,8 +3536,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O13" s="276"/>
-      <c r="P13" s="276"/>
+      <c r="O13" s="264"/>
+      <c r="P13" s="264"/>
       <c r="Q13" s="45"/>
       <c r="R13" s="66"/>
       <c r="S13" s="66"/>
@@ -3805,8 +3805,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O20" s="277"/>
-      <c r="P20" s="277"/>
+      <c r="O20" s="265"/>
+      <c r="P20" s="265"/>
       <c r="Q20" s="45"/>
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
@@ -3891,8 +3891,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O22" s="278"/>
-      <c r="P22" s="278"/>
+      <c r="O22" s="266"/>
+      <c r="P22" s="266"/>
       <c r="Q22" s="45"/>
       <c r="R22" s="78"/>
       <c r="S22" s="78"/>
@@ -3934,8 +3934,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O23" s="279"/>
-      <c r="P23" s="279"/>
+      <c r="O23" s="267"/>
+      <c r="P23" s="267"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
@@ -4057,8 +4057,8 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O26" s="280"/>
-      <c r="P26" s="280"/>
+      <c r="O26" s="268"/>
+      <c r="P26" s="268"/>
       <c r="Q26" s="45"/>
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
@@ -4571,10 +4571,10 @@
     <row r="40" spans="1:20" ht="18.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="145"/>
       <c r="D40" s="147"/>
-      <c r="F40" s="267" t="s">
+      <c r="F40" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="G40" s="267"/>
+      <c r="G40" s="255"/>
       <c r="H40" s="148">
         <f>SUM(H5:H31)</f>
         <v>51250.14</v>
@@ -4774,6 +4774,13 @@
     <sortCondition ref="B5:B38"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:L3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F40:G40"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="O3:P3"/>
@@ -4786,13 +4793,6 @@
     <mergeCell ref="O22:P22"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="K2:L3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.15748031496062992" top="0.31496062992125984" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="78" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -4807,8 +4807,8 @@
   </sheetPr>
   <dimension ref="A1:AA55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W39" sqref="W39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P41" sqref="P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -4835,10 +4835,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:27" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="256"/>
+      <c r="B1" s="269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="270"/>
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -4869,10 +4869,10 @@
       <c r="K2" s="287"/>
       <c r="L2" s="288"/>
       <c r="M2" s="221"/>
-      <c r="N2" s="260" t="s">
+      <c r="N2" s="274" t="s">
         <v>66</v>
       </c>
-      <c r="O2" s="260"/>
+      <c r="O2" s="274"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="10"/>
       <c r="T2" s="12"/>
@@ -4899,16 +4899,16 @@
       <c r="K3" s="289"/>
       <c r="L3" s="290"/>
       <c r="M3" s="222"/>
-      <c r="N3" s="260"/>
-      <c r="O3" s="260"/>
-      <c r="P3" s="268" t="s">
+      <c r="N3" s="274"/>
+      <c r="O3" s="274"/>
+      <c r="P3" s="256" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="269"/>
-      <c r="R3" s="270" t="s">
+      <c r="Q3" s="257"/>
+      <c r="R3" s="258" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="271"/>
+      <c r="S3" s="259"/>
       <c r="T3" s="12"/>
       <c r="U3" s="13"/>
       <c r="V3" s="13"/>
@@ -5010,8 +5010,8 @@
       <c r="Q5" s="38">
         <v>0</v>
       </c>
-      <c r="R5" s="272"/>
-      <c r="S5" s="272"/>
+      <c r="R5" s="260"/>
+      <c r="S5" s="260"/>
       <c r="T5" s="12"/>
       <c r="U5" s="13"/>
       <c r="V5" s="13"/>
@@ -5048,8 +5048,8 @@
         <f>O6-I6</f>
         <v>0</v>
       </c>
-      <c r="R6" s="273"/>
-      <c r="S6" s="273"/>
+      <c r="R6" s="261"/>
+      <c r="S6" s="261"/>
       <c r="T6" s="45"/>
       <c r="U6" s="13"/>
       <c r="V6" s="46"/>
@@ -5136,8 +5136,8 @@
       <c r="Q8" s="52">
         <v>0</v>
       </c>
-      <c r="R8" s="274"/>
-      <c r="S8" s="274"/>
+      <c r="R8" s="262"/>
+      <c r="S8" s="262"/>
       <c r="T8" s="45"/>
       <c r="U8" s="13"/>
       <c r="V8" s="13"/>
@@ -5224,8 +5224,8 @@
       <c r="Q10" s="52">
         <v>0</v>
       </c>
-      <c r="R10" s="275"/>
-      <c r="S10" s="275"/>
+      <c r="R10" s="263"/>
+      <c r="S10" s="263"/>
       <c r="T10" s="45"/>
       <c r="U10" s="13"/>
       <c r="V10" s="13"/>
@@ -5365,8 +5365,8 @@
       <c r="Q13" s="52">
         <v>0</v>
       </c>
-      <c r="R13" s="276"/>
-      <c r="S13" s="276"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="264"/>
       <c r="T13" s="45"/>
       <c r="U13" s="66"/>
       <c r="V13" s="66"/>
@@ -5674,8 +5674,8 @@
       <c r="Q20" s="52">
         <v>0</v>
       </c>
-      <c r="R20" s="277"/>
-      <c r="S20" s="277"/>
+      <c r="R20" s="265"/>
+      <c r="S20" s="265"/>
       <c r="T20" s="45"/>
       <c r="U20" s="13"/>
       <c r="V20" s="13"/>
@@ -5762,8 +5762,8 @@
       <c r="Q22" s="52">
         <v>0</v>
       </c>
-      <c r="R22" s="278"/>
-      <c r="S22" s="278"/>
+      <c r="R22" s="266"/>
+      <c r="S22" s="266"/>
       <c r="T22" s="45"/>
       <c r="U22" s="78"/>
       <c r="V22" s="78"/>
@@ -5809,8 +5809,8 @@
       <c r="Q23" s="52">
         <v>0</v>
       </c>
-      <c r="R23" s="279"/>
-      <c r="S23" s="279"/>
+      <c r="R23" s="267"/>
+      <c r="S23" s="267"/>
       <c r="T23" s="45"/>
       <c r="U23" s="13"/>
       <c r="V23" s="13"/>
@@ -5950,8 +5950,8 @@
       <c r="Q26" s="52">
         <v>0</v>
       </c>
-      <c r="R26" s="280"/>
-      <c r="S26" s="280"/>
+      <c r="R26" s="268"/>
+      <c r="S26" s="268"/>
       <c r="T26" s="45"/>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
@@ -6634,10 +6634,10 @@
     <row r="43" spans="1:23" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="145"/>
       <c r="D43" s="147"/>
-      <c r="F43" s="267" t="s">
+      <c r="F43" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="267"/>
+      <c r="G43" s="255"/>
       <c r="H43" s="148">
         <f>SUM(H5:H34)</f>
         <v>52842.86</v>
@@ -6858,6 +6858,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:L3"/>
+    <mergeCell ref="N2:O3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="F43:G43"/>
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
@@ -6870,14 +6878,6 @@
     <mergeCell ref="R22:S22"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="R26:S26"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="J2:L3"/>
-    <mergeCell ref="N2:O3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.35" bottom="0.27" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
